--- a/data/trans_camb/P10_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,47</t>
+          <t>-2,91; 6,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,27</t>
+          <t>-8,9; -1,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,4</t>
+          <t>5,83; 17,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -1,49</t>
+          <t>-9,0; -1,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,59</t>
+          <t>3,28; 10,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,83</t>
+          <t>-7,95; -2,66</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 123,89</t>
+          <t>-32,3; 137,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,69; -34,38</t>
+          <t>-90,01; -24,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,99; 312,35</t>
+          <t>52,29; 314,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -18,46</t>
+          <t>-82,99; -27,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 178,08</t>
+          <t>31,33; 189,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -44,7</t>
+          <t>-82,27; -43,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,21</t>
+          <t>-3,26; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -2,05</t>
+          <t>-7,76; -2,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,56</t>
+          <t>-3,35; 3,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,89</t>
+          <t>-4,14; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -2,64</t>
+          <t>-11,04; -2,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 0,2</t>
+          <t>-7,59; 0,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,26</t>
+          <t>-2,44; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -3,25</t>
+          <t>-7,82; -3,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,04</t>
+          <t>-4,78; 0,67</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 75,26</t>
+          <t>-35,7; 76,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,53; -36,61</t>
+          <t>-81,47; -33,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 65,36</t>
+          <t>-37,83; 58,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 38,86</t>
+          <t>-24,26; 39,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,38; -20,92</t>
+          <t>-63,9; -22,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 2,09</t>
+          <t>-44,84; 2,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 33,8</t>
+          <t>-19,65; 32,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,74; -31,71</t>
+          <t>-63,72; -30,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 10,56</t>
+          <t>-38,6; 7,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,6</t>
+          <t>1,39; 7,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,98</t>
+          <t>-1,01; 3,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,15</t>
+          <t>1,91; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,67</t>
+          <t>4,07; 11,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,84</t>
+          <t>-1,51; 4,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,69</t>
+          <t>-0,02; 5,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,44</t>
+          <t>3,74; 8,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,1</t>
+          <t>-0,71; 3,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,83</t>
+          <t>1,77; 5,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,92; 2131,24</t>
+          <t>10,99; 2216,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 862,57</t>
+          <t>-73,22; 837,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,58; 2077,36</t>
+          <t>32,5; 1853,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,46; 503,11</t>
+          <t>77,81; 590,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 264,12</t>
+          <t>-37,29; 202,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 283,04</t>
+          <t>-5,39; 283,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>99,89; 573,65</t>
+          <t>97,13; 543,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 187,14</t>
+          <t>-22,71; 202,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,99; 402,6</t>
+          <t>48,94; 391,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,13</t>
+          <t>3,26; 8,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,42</t>
+          <t>3,91; 10,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,83</t>
+          <t>1,44; 8,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,58</t>
+          <t>9,5; 17,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,7</t>
+          <t>6,9; 16,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,24</t>
+          <t>0,01; 8,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,18</t>
+          <t>7,12; 11,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,37</t>
+          <t>6,14; 12,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,32</t>
+          <t>2,16; 7,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,6; 1219,31</t>
+          <t>92,36; 1020,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>114,73; 1423,56</t>
+          <t>109,68; 1369,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,55; 1022,36</t>
+          <t>20,7; 925,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,95; 352,01</t>
+          <t>103,03; 375,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,19; 330,37</t>
+          <t>75,16; 336,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 158,29</t>
+          <t>-3,41; 156,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>132,55; 401,45</t>
+          <t>119,94; 368,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>113,44; 383,23</t>
+          <t>110,22; 359,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,0; 213,97</t>
+          <t>35,52; 203,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,52</t>
+          <t>-5,74; 2,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,79</t>
+          <t>-6,25; 1,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,43</t>
+          <t>-7,02; 0,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 17,68</t>
+          <t>5,16; 17,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,55</t>
+          <t>-2,75; 7,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,41</t>
+          <t>-1,92; 6,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,66</t>
+          <t>1,12; 8,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,43</t>
+          <t>-3,25; 3,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,8</t>
+          <t>-2,7; 2,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,13; 74,05</t>
+          <t>-72,57; 76,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,38; 55,18</t>
+          <t>-72,53; 54,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 15,99</t>
+          <t>-80,05; 16,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>56,87; 447,63</t>
+          <t>53,27; 524,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 183,96</t>
+          <t>-35,54; 195,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 230,57</t>
+          <t>-20,02; 181,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,53; 190,09</t>
+          <t>12,84; 196,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 74,56</t>
+          <t>-42,85; 80,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 63,35</t>
+          <t>-34,39; 71,42</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,61</t>
+          <t>2,82; 9,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,68</t>
+          <t>3,31; 10,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,58</t>
+          <t>1,73; 6,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,94</t>
+          <t>2,4; 10,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,06</t>
+          <t>4,18; 13,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,36</t>
+          <t>-0,04; 6,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,23</t>
+          <t>3,78; 9,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,0</t>
+          <t>4,89; 11,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,74</t>
+          <t>1,73; 5,75</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>69,39; 1924,7</t>
+          <t>88,36; 1850,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>101,06; 2297,24</t>
+          <t>93,95; 2338,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>39,38; 1369,56</t>
+          <t>36,62; 1443,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>41,17; 489,69</t>
+          <t>33,84; 546,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>60,51; 600,87</t>
+          <t>71,53; 695,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 284,37</t>
+          <t>-3,0; 312,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>99,72; 550,43</t>
+          <t>96,42; 576,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>123,69; 667,18</t>
+          <t>129,5; 720,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,96; 351,26</t>
+          <t>37,19; 359,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,3</t>
+          <t>-3,24; 1,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,69</t>
+          <t>-2,04; 3,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,25</t>
+          <t>0,26; 6,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,05</t>
+          <t>-5,18; 1,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,95</t>
+          <t>-0,95; 5,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,03</t>
+          <t>-3,03; 5,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,83</t>
+          <t>-3,27; 0,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,02</t>
+          <t>-0,36; 4,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,14</t>
+          <t>-0,24; 5,2</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-54,32; 34,69</t>
+          <t>-52,2; 35,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 90,79</t>
+          <t>-31,49; 86,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 161,58</t>
+          <t>0,96; 145,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 15,16</t>
+          <t>-47,42; 16,48</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 75,42</t>
+          <t>-9,13; 74,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 75,46</t>
+          <t>-27,87; 73,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 12,79</t>
+          <t>-39,78; 10,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 65,94</t>
+          <t>-5,29; 65,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 78,65</t>
+          <t>-3,03; 82,77</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,79</t>
+          <t>-1,94; 3,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,14</t>
+          <t>-6,11; -1,21</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,12</t>
+          <t>-4,86; 0,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,1</t>
+          <t>2,83; 9,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,54</t>
+          <t>-5,19; 0,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,9</t>
+          <t>3,21; 9,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,86</t>
+          <t>1,31; 5,73</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,09</t>
+          <t>-4,81; -0,98</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,17</t>
+          <t>-0,02; 4,21</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 58,22</t>
+          <t>-22,37; 57,57</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-65,49; -17,84</t>
+          <t>-66,9; -17,53</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 2,37</t>
+          <t>-52,86; 7,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>23,59; 116,22</t>
+          <t>25,61; 117,17</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 7,8</t>
+          <t>-48,57; 5,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>28,44; 125,15</t>
+          <t>29,89; 134,88</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,77; 79,56</t>
+          <t>13,43; 75,81</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -14,68</t>
+          <t>-50,86; -12,58</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 56,63</t>
+          <t>-0,16; 55,88</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>0,41; 2,8</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-0,99; 1,23</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,83</t>
+          <t>-0,41; 1,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>3,96; 7,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,77; 3,6</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,59</t>
+          <t>0,68; 3,76</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>2,65; 4,65</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>0,19; 2,08</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,55</t>
+          <t>0,65; 2,53</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,09; 58,56</t>
+          <t>6,12; 60,06</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 26,31</t>
+          <t>-17,29; 26,58</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 39,53</t>
+          <t>-7,32; 42,95</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>40,8; 87,43</t>
+          <t>42,97; 91,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,9; 47,83</t>
+          <t>8,36; 46,33</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,78; 45,82</t>
+          <t>7,76; 49,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>35,23; 70,43</t>
+          <t>34,92; 72,53</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>4,04; 32,98</t>
+          <t>2,67; 32,47</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,38; 39,63</t>
+          <t>9,12; 40,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,63</t>
+          <t>-2,85; 6,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -1,96</t>
+          <t>-8,91; -1,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,64</t>
+          <t>5,49; 17,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -1,74</t>
+          <t>-9,26; -1,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,95</t>
+          <t>3,49; 10,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -2,66</t>
+          <t>-7,86; -2,78</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 137,36</t>
+          <t>-31,89; 133,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,01; -24,39</t>
+          <t>-90,05; -22,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,29; 314,04</t>
+          <t>53,75; 304,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,99; -27,44</t>
+          <t>-82,45; -25,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,33; 189,23</t>
+          <t>35,61; 177,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,27; -43,03</t>
+          <t>-81,18; -43,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,23</t>
+          <t>-2,96; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -2,12</t>
+          <t>-7,36; -1,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,44</t>
+          <t>-3,1; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,63</t>
+          <t>-4,37; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -2,77</t>
+          <t>-10,97; -2,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 0,22</t>
+          <t>-7,62; 0,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,07</t>
+          <t>-2,66; 3,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; -3,02</t>
+          <t>-7,84; -3,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,67</t>
+          <t>-4,26; 0,72</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 76,44</t>
+          <t>-32,71; 79,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,47; -33,46</t>
+          <t>-80,95; -30,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 58,41</t>
+          <t>-36,15; 74,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 39,09</t>
+          <t>-26,24; 40,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,9; -22,4</t>
+          <t>-63,75; -20,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 2,72</t>
+          <t>-44,65; 1,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 32,98</t>
+          <t>-21,32; 32,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,72; -30,85</t>
+          <t>-64,24; -32,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 7,46</t>
+          <t>-34,98; 8,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,33</t>
+          <t>1,57; 7,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,04</t>
+          <t>-1,15; 3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,5</t>
+          <t>2,0; 7,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,55</t>
+          <t>3,73; 11,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,77</t>
+          <t>-1,35; 5,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,68</t>
+          <t>0,12; 5,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,54</t>
+          <t>3,62; 8,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,1</t>
+          <t>-0,75; 3,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,75</t>
+          <t>1,8; 5,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 2216,48</t>
+          <t>12,64; 2173,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,22; 837,89</t>
+          <t>-73,67; 797,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,5; 1853,66</t>
+          <t>19,33; 1833,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77,81; 590,84</t>
+          <t>71,29; 594,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 202,8</t>
+          <t>-35,57; 260,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 283,13</t>
+          <t>-7,19; 292,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,13; 543,31</t>
+          <t>99,44; 544,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 202,26</t>
+          <t>-26,94; 222,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,94; 391,57</t>
+          <t>41,31; 362,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,37</t>
+          <t>2,97; 7,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 10,36</t>
+          <t>4,25; 10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,01</t>
+          <t>1,21; 7,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 17,41</t>
+          <t>9,01; 17,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,72</t>
+          <t>7,22; 17,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 8,39</t>
+          <t>-0,27; 8,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,91</t>
+          <t>7,03; 11,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,24</t>
+          <t>6,7; 12,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,32</t>
+          <t>1,89; 7,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,36; 1020,34</t>
+          <t>77,61; 911,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>109,68; 1369,52</t>
+          <t>128,69; 1219,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,7; 925,73</t>
+          <t>26,64; 872,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>103,03; 375,03</t>
+          <t>94,42; 341,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>75,16; 336,69</t>
+          <t>82,22; 333,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 156,47</t>
+          <t>-4,09; 167,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>119,94; 368,62</t>
+          <t>118,49; 378,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>110,22; 359,17</t>
+          <t>118,76; 379,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35,52; 203,98</t>
+          <t>26,34; 203,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,92</t>
+          <t>-6,19; 2,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 1,91</t>
+          <t>-6,7; 1,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 0,25</t>
+          <t>-6,86; 0,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,41</t>
+          <t>4,84; 17,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,18</t>
+          <t>-2,75; 7,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 6,87</t>
+          <t>-1,07; 7,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,75</t>
+          <t>0,75; 8,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,4</t>
+          <t>-3,14; 3,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,96</t>
+          <t>-2,36; 3,03</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,57; 76,32</t>
+          <t>-73,14; 61,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-72,53; 54,5</t>
+          <t>-73,1; 57,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 16,79</t>
+          <t>-79,23; 18,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53,27; 524,0</t>
+          <t>48,36; 451,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 195,52</t>
+          <t>-39,44; 194,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 181,38</t>
+          <t>-15,74; 215,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,84; 196,16</t>
+          <t>6,5; 186,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 80,4</t>
+          <t>-42,95; 72,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 71,42</t>
+          <t>-30,75; 75,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,82; 9,59</t>
+          <t>2,8; 9,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,91</t>
+          <t>3,33; 10,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,55</t>
+          <t>1,6; 6,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,4; 10,99</t>
+          <t>2,62; 11,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,81</t>
+          <t>4,01; 13,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,46</t>
+          <t>-0,13; 6,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,24</t>
+          <t>3,67; 9,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,26</t>
+          <t>5,04; 11,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,75</t>
+          <t>1,59; 5,7</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>88,36; 1850,78</t>
+          <t>59,52; 1928,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>93,95; 2338,02</t>
+          <t>95,69; 2012,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36,62; 1443,11</t>
+          <t>35,57; 1344,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33,84; 546,8</t>
+          <t>35,41; 521,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>71,53; 695,87</t>
+          <t>64,09; 593,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 312,38</t>
+          <t>-4,59; 300,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>96,42; 576,39</t>
+          <t>100,64; 608,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>129,5; 720,55</t>
+          <t>126,35; 665,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,19; 359,39</t>
+          <t>36,54; 410,83</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,43</t>
+          <t>-3,64; 1,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,43</t>
+          <t>-2,04; 3,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,24</t>
+          <t>0,14; 6,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,27</t>
+          <t>-4,95; 1,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,83</t>
+          <t>-0,88; 5,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,95</t>
+          <t>-2,67; 6,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,58</t>
+          <t>-3,41; 0,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,14</t>
+          <t>-0,71; 3,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,2</t>
+          <t>-0,16; 5,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 35,34</t>
+          <t>-54,76; 36,41</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 86,34</t>
+          <t>-33,07; 78,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,96; 145,94</t>
+          <t>-0,56; 151,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 16,48</t>
+          <t>-45,31; 15,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 74,55</t>
+          <t>-8,04; 73,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 73,28</t>
+          <t>-24,06; 76,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 10,37</t>
+          <t>-40,74; 7,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 65,53</t>
+          <t>-8,98; 61,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 82,77</t>
+          <t>-0,27; 80,72</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,69</t>
+          <t>-2,03; 3,95</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,11; -1,21</t>
+          <t>-5,96; -1,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 0,45</t>
+          <t>-4,95; 0,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,83; 9,18</t>
+          <t>2,77; 9,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,42</t>
+          <t>-5,43; 0,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,87</t>
+          <t>3,03; 10,11</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,73</t>
+          <t>1,28; 5,76</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,98</t>
+          <t>-4,82; -1,11</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,21</t>
+          <t>-0,06; 4,29</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 57,57</t>
+          <t>-22,82; 60,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-66,9; -17,53</t>
+          <t>-65,21; -14,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 7,06</t>
+          <t>-53,08; 4,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25,61; 117,17</t>
+          <t>22,58; 119,37</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 5,99</t>
+          <t>-49,28; 3,86</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>29,89; 134,88</t>
+          <t>26,4; 137,19</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,43; 75,81</t>
+          <t>13,36; 75,78</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-50,86; -12,58</t>
+          <t>-50,35; -15,23</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 55,88</t>
+          <t>-0,69; 55,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,8</t>
+          <t>0,28; 2,72</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,23</t>
+          <t>-0,91; 1,2</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,95</t>
+          <t>-0,5; 1,77</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,11</t>
+          <t>4,12; 7,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,6</t>
+          <t>0,79; 3,64</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,76</t>
+          <t>0,86; 3,74</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,65</t>
+          <t>2,58; 4,51</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,08</t>
+          <t>0,38; 2,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,53</t>
+          <t>0,7; 2,52</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,12; 60,06</t>
+          <t>4,95; 57,93</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 26,58</t>
+          <t>-16,02; 26,09</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 42,95</t>
+          <t>-8,57; 37,99</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>42,97; 91,21</t>
+          <t>45,41; 91,65</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>8,36; 46,33</t>
+          <t>8,54; 46,87</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7,76; 49,18</t>
+          <t>9,18; 48,06</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>34,92; 72,53</t>
+          <t>36,11; 71,04</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>2,67; 32,47</t>
+          <t>5,02; 33,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>9,12; 40,54</t>
+          <t>9,64; 38,53</t>
         </is>
       </c>
     </row>
